--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value535.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value535.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.112074608636744</v>
+        <v>2.100939273834229</v>
       </c>
       <c r="B1">
-        <v>1.358825627131682</v>
+        <v>2.69025444984436</v>
       </c>
       <c r="C1">
-        <v>1.326069016523349</v>
+        <v>2.817869663238525</v>
       </c>
       <c r="D1">
-        <v>1.550627627376333</v>
+        <v>2.912649393081665</v>
       </c>
       <c r="E1">
-        <v>2.095036483467289</v>
+        <v>0.7650070786476135</v>
       </c>
     </row>
   </sheetData>
